--- a/biology/Médecine/Save_a_child's_heart/Save_a_child's_heart.xlsx
+++ b/biology/Médecine/Save_a_child's_heart/Save_a_child's_heart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Save_a_child%27s_heart</t>
+          <t>Save_a_child's_heart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’association Save a child's heart (Sauver le cœur d’un enfant) est un programme médical israélien qui a pour but de soigner les problèmes cardiaques de jeunes patients (nouveau-nés et adolescents) issus de pays en développement.
 Cette association est basée au centre médical Wolfson, à Holon, banlieue sud de Tel-Aviv.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Save_a_child%27s_heart</t>
+          <t>Save_a_child's_heart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Programmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’association Save a Child’s Heart propose plusieurs programmes :
 Un programme d’accueil en Israël de personnels étrangers : il s’agit d’une formation pour le personnel médical étranger permettant plus tard aux médecins locaux de traiter les enfants dans leur pays. Pour cela, SACH invite des médecins et des infirmières à son centre médical pour une formation post-doctorat abordant tous les aspects de la cardiologie pédiatrique.
